--- a/table/tableA3.xlsx
+++ b/table/tableA3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\MPhil-Thesis-Project\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D647B10A-821B-4E35-BE92-C9C161B292B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D3E22C-ED84-4ACD-9A3E-3DD4DE60F303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11460" yWindow="1900" windowWidth="13480" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>MS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Inventory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Finance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,7 +84,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Panel B</t>
+    <t>FPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tangibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panel A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlnRER*FPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,15 +456,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A5" sqref="A5:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="str">
         <f>"(1)"</f>
@@ -474,19 +482,24 @@
         <f>"(4)"</f>
         <v>(4)</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="str">
+        <f>"(5)"</f>
+        <v>(5)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -494,43 +507,51 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
       <c r="B5" s="2" t="str">
-        <f>"0.034***"</f>
-        <v>0.034***</v>
+        <f>"0.035***"</f>
+        <v>0.035***</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>"0.032***"</f>
-        <v>0.032***</v>
+        <f>"0.037***"</f>
+        <v>0.037***</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f>"0.034***"</f>
-        <v>0.034***</v>
+        <f>"0.045***"</f>
+        <v>0.045***</v>
       </c>
       <c r="E5" s="2" t="str">
-        <f>"-0.034**"</f>
-        <v>-0.034**</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <f>"0.039***"</f>
+        <v>0.039***</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f>"-0.022"</f>
+        <v>-0.022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="str">
         <f>"(0.006)"</f>
         <v>(0.006)</v>
@@ -544,275 +565,338 @@
         <v>(0.007)</v>
       </c>
       <c r="E6" s="2" t="str">
+        <f>"(0.007)"</f>
+        <v>(0.007)</v>
+      </c>
+      <c r="F6" s="2" t="str">
         <f>"(0.015)"</f>
         <v>(0.015)</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"-0.079**"</f>
+        <v>-0.079**</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>"-0.079**"</f>
+        <v>-0.079**</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>"-0.080**"</f>
+        <v>-0.080**</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f>"-0.079**"</f>
+        <v>-0.079**</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f>"-0.080**"</f>
+        <v>-0.080**</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="str">
+        <f>"(0.037)"</f>
+        <v>(0.037)</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>"(0.037)"</f>
+        <v>(0.037)</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>"(0.037)"</f>
+        <v>(0.037)</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f>"(0.037)"</f>
+        <v>(0.037)</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f>"(0.037)"</f>
+        <v>(0.037)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="str">
-        <f>"-0.083**"</f>
-        <v>-0.083**</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <f>"-0.084**"</f>
-        <v>-0.084**</v>
-      </c>
-      <c r="D7" s="2" t="str">
-        <f>"-0.084**"</f>
-        <v>-0.084**</v>
-      </c>
-      <c r="E7" s="2" t="str">
-        <f>"-0.084**"</f>
-        <v>-0.084**</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="str">
-        <f>"(0.036)"</f>
-        <v>(0.036)</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <f>"(0.036)"</f>
-        <v>(0.036)</v>
-      </c>
-      <c r="D8" s="2" t="str">
-        <f>"(0.036)"</f>
-        <v>(0.036)</v>
-      </c>
-      <c r="E8" s="2" t="str">
-        <f>"(0.036)"</f>
-        <v>(0.036)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" s="2" t="str">
+        <f>"-0.008"</f>
+        <v>-0.008</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f>"-0.040"</f>
+        <v>-0.040</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>"-0.043"</f>
+        <v>-0.043</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f>"-0.036"</f>
+        <v>-0.036</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f>"-0.051"</f>
+        <v>-0.051</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="str">
+        <f>"(0.012)"</f>
+        <v>(0.012)</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f>"(0.049)"</f>
+        <v>(0.049)</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>"(0.049)"</f>
+        <v>(0.049)</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f>"(0.049)"</f>
+        <v>(0.049)</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f>"(0.049)"</f>
+        <v>(0.049)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>7</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <f>"-0.002"</f>
-        <v>-0.002</v>
-      </c>
-      <c r="C9" s="2" t="str">
-        <f>"0.040"</f>
-        <v>0.040</v>
-      </c>
-      <c r="D9" s="2" t="str">
-        <f>"0.043"</f>
-        <v>0.043</v>
-      </c>
-      <c r="E9" s="2" t="str">
-        <f>"0.028"</f>
-        <v>0.028</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="str">
-        <f>"(0.011)"</f>
-        <v>(0.011)</v>
-      </c>
-      <c r="C10" s="2" t="str">
-        <f>"(0.044)"</f>
-        <v>(0.044)</v>
-      </c>
-      <c r="D10" s="2" t="str">
-        <f>"(0.044)"</f>
-        <v>(0.044)</v>
-      </c>
-      <c r="E10" s="2" t="str">
-        <f>"(0.044)"</f>
-        <v>(0.044)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="str">
-        <f>"-0.044"</f>
-        <v>-0.044</v>
+        <f>"0.035"</f>
+        <v>0.035</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f>"-0.046"</f>
-        <v>-0.046</v>
+        <f>"0.037"</f>
+        <v>0.037</v>
       </c>
       <c r="E11" s="2" t="str">
-        <f>"-0.037"</f>
-        <v>-0.037</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <f>"0.033"</f>
+        <v>0.033</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f>"0.041"</f>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="str">
-        <f>"(0.046)"</f>
-        <v>(0.046)</v>
+        <f>"(0.050)"</f>
+        <v>(0.050)</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f>"(0.046)"</f>
-        <v>(0.046)</v>
+        <f>"(0.050)"</f>
+        <v>(0.050)</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f>"(0.046)"</f>
-        <v>(0.046)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <f>"(0.050)"</f>
+        <v>(0.050)</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f>"(0.050)"</f>
+        <v>(0.050)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="str">
-        <f>"-0.046***"</f>
-        <v>-0.046***</v>
+        <f>"-0.019***"</f>
+        <v>-0.019***</v>
       </c>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="str">
+        <f>"(0.004)"</f>
+        <v>(0.004)</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="E15" s="2" t="str">
+        <f>"-0.045***"</f>
+        <v>-0.045***</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="E16" s="2" t="str">
         <f>"(0.013)"</f>
         <v>(0.013)</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="str">
-        <f>"0.256***"</f>
-        <v>0.256***</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="str">
-        <f>"(0.052)"</f>
-        <v>(0.052)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="str">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="str">
+        <f>"0.229***"</f>
+        <v>0.229***</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="str">
+        <f>"(0.053)"</f>
+        <v>(0.053)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="str">
         <f>"MS"</f>
         <v>MS</v>
       </c>
-      <c r="B17" s="2" t="str">
-        <f>"0.022***"</f>
-        <v>0.022***</v>
-      </c>
-      <c r="C17" s="2" t="str">
-        <f>"0.022***"</f>
-        <v>0.022***</v>
-      </c>
-      <c r="D17" s="2" t="str">
-        <f>"0.022***"</f>
-        <v>0.022***</v>
-      </c>
-      <c r="E17" s="2" t="str">
-        <f>"0.022***"</f>
-        <v>0.022***</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="str">
+      <c r="B19" s="2" t="str">
+        <f>"0.070***"</f>
+        <v>0.070***</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f>"0.070***"</f>
+        <v>0.070***</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f>"0.070***"</f>
+        <v>0.070***</v>
+      </c>
+      <c r="E19" s="2" t="str">
+        <f>"0.070***"</f>
+        <v>0.070***</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f>"0.070***"</f>
+        <v>0.070***</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="B18" s="2" t="str">
-        <f>"(0.003)"</f>
-        <v>(0.003)</v>
-      </c>
-      <c r="C18" s="2" t="str">
-        <f>"(0.003)"</f>
-        <v>(0.003)</v>
-      </c>
-      <c r="D18" s="2" t="str">
-        <f>"(0.003)"</f>
-        <v>(0.003)</v>
-      </c>
-      <c r="E18" s="2" t="str">
-        <f>"(0.003)"</f>
-        <v>(0.003)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="str">
+      <c r="B20" s="2" t="str">
+        <f>"(0.004)"</f>
+        <v>(0.004)</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <f>"(0.004)"</f>
+        <v>(0.004)</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f>"(0.004)"</f>
+        <v>(0.004)</v>
+      </c>
+      <c r="E20" s="2" t="str">
+        <f>"(0.004)"</f>
+        <v>(0.004)</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f>"(0.004)"</f>
+        <v>(0.004)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="str">
         <f>"Year FE "</f>
         <v xml:space="preserve">Year FE </v>
       </c>
-      <c r="B19" s="2" t="str">
-        <f t="shared" ref="B19:E20" si="0">"Yes"</f>
+      <c r="B21" s="2" t="str">
+        <f t="shared" ref="B21:F22" si="0">"Yes"</f>
         <v>Yes</v>
       </c>
-      <c r="C19" s="2" t="str">
+      <c r="C21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="D19" s="2" t="str">
+      <c r="E21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="E19" s="2" t="str">
+      <c r="F21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="str">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="str">
         <f>"Firm-product-country FE"</f>
         <v>Firm-product-country FE</v>
       </c>
-      <c r="B20" s="2" t="str">
+      <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="C20" s="2" t="str">
+      <c r="C22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="D20" s="2" t="str">
+      <c r="E22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="E20" s="2" t="str">
+      <c r="F22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="3" t="str">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="3" t="str">
         <f>"1793974"</f>
         <v>1793974</v>
       </c>
-      <c r="C21" s="3" t="str">
+      <c r="C23" s="3" t="str">
         <f>"1793974"</f>
         <v>1793974</v>
       </c>
-      <c r="D21" s="3" t="str">
+      <c r="D23" s="3" t="str">
         <f>"1793974"</f>
         <v>1793974</v>
       </c>
-      <c r="E21" s="3" t="str">
+      <c r="E23" s="3" t="str">
         <f>"1793974"</f>
         <v>1793974</v>
       </c>
+      <c r="F23" s="3" t="str">
+        <f>"1793974"</f>
+        <v>1793974</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
